--- a/templates/nas.xlsx
+++ b/templates/nas.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EF4FD9-E8F5-41F9-AC75-7634FE86FF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91310416-954B-45DF-8A15-B651C74FED09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4278" uniqueCount="4147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4280" uniqueCount="4149">
   <si>
     <t>Contract Name</t>
   </si>
@@ -12573,6 +12573,12 @@
   </si>
   <si>
     <t>Smashing Cleaning Services LLC</t>
+  </si>
+  <si>
+    <t>Company Phone</t>
+  </si>
+  <si>
+    <t>Company Mail</t>
   </si>
 </sst>
 </file>
@@ -13308,12 +13314,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT25"/>
+  <dimension ref="A1:AV25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="AV1" sqref="AV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13367,7 +13373,7 @@
     <col min="47" max="16384" width="26.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -13506,54 +13512,60 @@
       <c r="AT1" s="27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU1" s="17" t="s">
+        <v>4147</v>
+      </c>
+      <c r="AV1" s="17" t="s">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
       <c r="U2" s="16"/>
       <c r="AO2" s="16"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
       <c r="U3" s="16"/>
       <c r="AO3" s="16"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="U4" s="16"/>
       <c r="AO4" s="16"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="U5" s="16"/>
       <c r="AO5" s="16"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="AD6" s="41"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="AD7" s="41"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="AD8" s="41"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="AD9" s="41"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="AD10" s="41"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="AD11" s="41"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="AD12" s="41"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="AD13" s="41"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="AD14" s="41"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="AD15" s="41"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="AD16" s="41"/>
     </row>
     <row r="17" spans="30:30" x14ac:dyDescent="0.3">
